--- a/InputData/indst/IFSRF/Industrial Feedstock Switching Recipient Fuel.xlsx
+++ b/InputData/indst/IFSRF/Industrial Feedstock Switching Recipient Fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\IFSRF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96EB2BC-0030-40BA-9364-0A5C36AD3468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A002F07-AF76-49E7-90BE-A5BA34F90A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59310" yWindow="1710" windowWidth="21600" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61260" yWindow="1725" windowWidth="24900" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>RHPF Recipient Hydrogen Pathway Fractions</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>For the U.S. model, it is configured to shift natural gas and coal to</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -501,10 +507,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +520,7 @@
     <col min="7" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -548,8 +554,14 @@
       <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -583,8 +595,14 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -618,8 +636,14 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -653,8 +677,14 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -688,8 +718,14 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -723,8 +759,14 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -758,8 +800,14 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -793,8 +841,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -828,8 +882,14 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -863,8 +923,14 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -872,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -896,8 +962,100 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
